--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347969.6782594752</v>
+        <v>284268.3475264956</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10500601.02362875</v>
+        <v>8666268.959347751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7920270.647819594</v>
+        <v>8778504.334061949</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>92.6649492891022</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>67.27654854321852</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>92.6649492891022</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.13719072031593</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.49227226221132</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X6" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.429877995854</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.6751566710423</v>
+        <v>165.1725371760943</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>101.3456292941734</v>
       </c>
       <c r="E9" t="n">
-        <v>127.429877995854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>187.52558716632</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>187.52558716632</v>
+        <v>141.5291223298312</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>44.72066634140992</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T12" t="n">
-        <v>187.52558716632</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>35.76004954248991</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.1083371873407</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.52558716632</v>
+        <v>223.0973954614422</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>165.1725371760945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>187.52558716632</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>187.52558716632</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.98383149362974</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.1418776004532</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.00402729331205</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>141.1762660121947</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.732180395783086</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.6623413033681</v>
       </c>
       <c r="G19" t="n">
-        <v>87.62115130411283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>93.05478608072409</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>147.6950473502999</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2210,7 +2210,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>112.7306151473524</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>252.9213587327971</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>173.5578851713675</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>33.24139751941173</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>75.27088892250295</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>37.67709528776586</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>28.93382893561908</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.367840861922</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>342.0399407833764</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>203.8857331891611</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.61605347929665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>47.38664856090042</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>361.9371513441236</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3158,7 +3158,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>54.4580304704437</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.6752559270063</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>242.8528437613032</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>175.2420117460533</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.08802744677256</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>233.6294263886425</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>227.7359967734926</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>53.54735467376845</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>357.8652472346045</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.34825474388504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>18.56488642963159</v>
+        <v>82.2895372226439</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>20.37870693812297</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>195.1379020699671</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>13.62519315636335</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.6151136988902</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="C2" t="n">
-        <v>194.6151136988902</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="D2" t="n">
-        <v>194.6151136988902</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="E2" t="n">
-        <v>194.6151136988902</v>
+        <v>142.396238631475</v>
       </c>
       <c r="F2" t="n">
-        <v>194.6151136988902</v>
+        <v>142.396238631475</v>
       </c>
       <c r="G2" t="n">
-        <v>101.0141548210092</v>
+        <v>142.396238631475</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821451</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940374</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056149</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018261</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037292</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564088</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W2" t="n">
-        <v>277.0588382785278</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="X2" t="n">
-        <v>194.6151136988902</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Y2" t="n">
-        <v>194.6151136988902</v>
+        <v>439.0550691137147</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.9702644606239</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9702644606239</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>168.9702644606239</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>168.9702644606239</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>101.0141548210092</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201163</v>
+        <v>12.36141687342361</v>
       </c>
       <c r="L3" t="n">
-        <v>43.08143125983008</v>
+        <v>111.9554248488221</v>
       </c>
       <c r="M3" t="n">
-        <v>134.8197310560413</v>
+        <v>247.5338027825024</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522524</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514005</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564088</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>356.1721822163859</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>262.5712233385049</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="U3" t="n">
-        <v>262.5712233385049</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="V3" t="n">
-        <v>168.9702644606239</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="W3" t="n">
-        <v>168.9702644606239</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="X3" t="n">
-        <v>168.9702644606239</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.9702644606239</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128176</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128176</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128176</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128176</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.969012809993892</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="C5" t="n">
-        <v>8.969012809993892</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="D5" t="n">
-        <v>8.969012809993892</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="E5" t="n">
-        <v>8.969012809993892</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="F5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J5" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>32.11753523687554</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L5" t="n">
-        <v>97.73708609773416</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M5" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N5" t="n">
-        <v>313.4124509320674</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O5" t="n">
-        <v>404.8833474416797</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T5" t="n">
-        <v>432.6813068454352</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U5" t="n">
-        <v>319.4361956081386</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="V5" t="n">
-        <v>206.191084370842</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W5" t="n">
-        <v>92.94597313354534</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="X5" t="n">
-        <v>92.94597313354534</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.969012809993892</v>
+        <v>290.7256538725949</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212.6103586555848</v>
+        <v>142.396238631475</v>
       </c>
       <c r="C6" t="n">
-        <v>99.36524741828815</v>
+        <v>142.396238631475</v>
       </c>
       <c r="D6" t="n">
-        <v>99.36524741828815</v>
+        <v>142.396238631475</v>
       </c>
       <c r="E6" t="n">
-        <v>8.969012809993892</v>
+        <v>142.396238631475</v>
       </c>
       <c r="F6" t="n">
-        <v>8.969012809993892</v>
+        <v>142.396238631475</v>
       </c>
       <c r="G6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>36.22166818534551</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1887676792232</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M6" t="n">
-        <v>176.439439640395</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N6" t="n">
-        <v>287.4309731640694</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953194</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P6" t="n">
-        <v>448.4506404996946</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U6" t="n">
-        <v>439.100581130178</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V6" t="n">
-        <v>439.100581130178</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W6" t="n">
-        <v>439.100581130178</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="X6" t="n">
-        <v>325.8554698928814</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y6" t="n">
-        <v>212.6103586555848</v>
+        <v>142.396238631475</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>8.969012809993892</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>8.969012809993892</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.63101027343186</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R7" t="n">
-        <v>8.969012809993892</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S7" t="n">
-        <v>8.969012809993892</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T7" t="n">
-        <v>8.969012809993892</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U7" t="n">
-        <v>8.969012809993892</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.7105344236251</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C8" t="n">
-        <v>157.7105344236251</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D8" t="n">
-        <v>157.7105344236251</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E8" t="n">
-        <v>157.7105344236251</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>11.57401253368338</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>11.57401253368338</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>51.79022575657168</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>138.5837562783352</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8277197508551</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>401.7606130061291</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>515.8386566132575</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P8" t="n">
-        <v>578.7006266841692</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R8" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S8" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T8" t="n">
-        <v>449.9835782035085</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U8" t="n">
-        <v>303.8470563135668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V8" t="n">
-        <v>303.8470563135668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W8" t="n">
-        <v>303.8470563135668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X8" t="n">
-        <v>303.8470563135668</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y8" t="n">
-        <v>157.7105344236251</v>
+        <v>583.2614020227591</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.291061014344</v>
+        <v>560.682563648794</v>
       </c>
       <c r="C9" t="n">
-        <v>140.291061014344</v>
+        <v>560.682563648794</v>
       </c>
       <c r="D9" t="n">
-        <v>140.291061014344</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E9" t="n">
-        <v>11.57401253368338</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498756</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>283.3396581397943</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620005</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O9" t="n">
-        <v>504.0242257254407</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P9" t="n">
-        <v>578.7006266841692</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S9" t="n">
-        <v>578.7006266841692</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T9" t="n">
-        <v>432.5641047942274</v>
+        <v>560.682563648794</v>
       </c>
       <c r="U9" t="n">
-        <v>432.5641047942274</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V9" t="n">
-        <v>432.5641047942274</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W9" t="n">
-        <v>286.4275829042857</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X9" t="n">
-        <v>140.291061014344</v>
+        <v>560.682563648794</v>
       </c>
       <c r="Y9" t="n">
-        <v>140.291061014344</v>
+        <v>560.682563648794</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>11.57401253368338</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L10" t="n">
-        <v>13.35570305153742</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M10" t="n">
-        <v>18.49252890534889</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N10" t="n">
-        <v>31.36473842767504</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.36473842767504</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.8416170062753</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>393.8416170062753</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>393.8416170062753</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>393.8416170062753</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8416170062753</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>204.4218319897905</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>15.0020469733056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058944</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079185</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644755</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>509.495204112383</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985585</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020269</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.10234866528</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>750.10234866528</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>750.10234866528</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>583.2614020227602</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>583.2614020227602</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>393.8416170062753</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W11" t="n">
-        <v>393.8416170062753</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X11" t="n">
-        <v>393.8416170062753</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.8416170062753</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.3994882033915</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>234.9464589222644</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>234.9464589222644</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>75.70900391680894</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>75.70900391680894</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>75.70900391680894</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>75.70900391680894</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>30.53661367296053</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140245</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476352</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017066</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.10234866528</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>750.10234866528</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>598.8192732198763</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>409.3994882033915</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>409.3994882033915</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>409.3994882033915</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>409.3994882033915</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>409.3994882033915</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>409.3994882033915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0020469733056</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0020469733056</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230179</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170723</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396343</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828998</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>49.45491281910429</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.0020469733056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>15.0020469733056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>15.0020469733056</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T13" t="n">
-        <v>15.0020469733056</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U13" t="n">
-        <v>15.0020469733056</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V13" t="n">
-        <v>15.0020469733056</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="W13" t="n">
-        <v>15.0020469733056</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="X13" t="n">
-        <v>15.0020469733056</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0020469733056</v>
+        <v>252.7500180086504</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>560.6825636487949</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>560.6825636487949</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>560.6825636487949</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>393.8416170062752</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897904</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678478</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644753</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985584</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020266</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652798</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652798</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652798</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652798</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652798</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.1023486652798</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>320.7740599518761</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>320.7740599518761</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>320.7740599518761</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>161.5366049464206</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0020469733056</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024242</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>183.554828077265</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140246</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546604</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476351</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017064</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652798</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>699.6136299848457</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>699.6136299848457</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>699.6136299848457</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>699.6136299848457</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>510.1938449683609</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>320.7740599518761</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>320.7740599518761</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>320.7740599518761</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.24882464404147</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C16" t="n">
-        <v>29.24882464404147</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D16" t="n">
-        <v>29.24882464404147</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="E16" t="n">
-        <v>29.24882464404147</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="F16" t="n">
-        <v>29.24882464404147</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>29.24882464404147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>29.24882464404147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>29.24882464404147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>29.24882464404147</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230176</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>49.45491281910415</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>29.24882464404147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.24882464404147</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C17" t="n">
-        <v>779.1681669784198</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D17" t="n">
-        <v>779.1681669784198</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>779.1681669784198</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,31 +5612,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>449.8213709509847</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C19" t="n">
-        <v>449.8213709509847</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D19" t="n">
-        <v>449.8213709509847</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E19" t="n">
-        <v>301.9082773685916</v>
+        <v>194.4538753244744</v>
       </c>
       <c r="F19" t="n">
-        <v>155.0183298706812</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X19" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.4698357812244</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1477.112184968822</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C20" t="n">
-        <v>1108.149668028411</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D20" t="n">
-        <v>749.8839694216604</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E20" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
         <v>364.0957168234162</v>
@@ -5746,58 +5746,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3231.611088194298</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2978.080611468134</v>
       </c>
       <c r="V20" t="n">
-        <v>2606.62001227887</v>
+        <v>2647.017724124563</v>
       </c>
       <c r="W20" t="n">
-        <v>2253.851357008756</v>
+        <v>2294.249068854449</v>
       </c>
       <c r="X20" t="n">
-        <v>2253.851357008756</v>
+        <v>1920.783310593369</v>
       </c>
       <c r="Y20" t="n">
-        <v>1863.712025032944</v>
+        <v>1530.643978617557</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>445.409938468768</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C22" t="n">
-        <v>445.409938468768</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>445.409938468768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>445.409938468768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>445.409938468768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>277.707101843487</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
@@ -5919,43 +5919,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>666.2025176122982</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X22" t="n">
-        <v>666.2025176122982</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.409938468768</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038044</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097632</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D23" t="n">
-        <v>1453.669719097632</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>1067.881466499388</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>656.8955617097804</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>241.8231115547769</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6022,19 +6022,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="24">
@@ -6053,22 +6053,22 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3143.957356778932</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C25" t="n">
-        <v>2975.021173851025</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D25" t="n">
-        <v>2824.904534438689</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>2676.991440856296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>2638.933768848452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>3325.605821609171</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y25" t="n">
-        <v>3325.605821609171</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6232,10 +6232,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3296.379731775211</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,7 +6347,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.759191501177</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.564938772426</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>729.2011216450112</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="W28" t="n">
-        <v>729.2011216450112</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="X28" t="n">
-        <v>729.2011216450112</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.2134036026657</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1506.396382525582</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.43386558517</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.369968096709</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.601312826595</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>2283.135554565515</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1892.996222589704</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6654,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W31" t="n">
-        <v>631.4698357812242</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X31" t="n">
-        <v>631.4698357812242</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="Y31" t="n">
-        <v>410.6772566376941</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
         <v>108.5090151927147</v>
@@ -6697,13 +6697,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695.175226737383</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C34" t="n">
-        <v>2526.239043809476</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>791.9221008414108</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X34" t="n">
-        <v>3097.616270711153</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y34" t="n">
-        <v>2876.823691567623</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760994</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.38442316275</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F35" t="n">
-        <v>651.3985183731427</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>3038.303020059443</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>3038.303020059443</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>751.950822890278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8341834779422</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>453.9210898955491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>139.3283057723577</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.532988317206</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C38" t="n">
-        <v>892.5704713767946</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>1128.559790961282</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>717.5738861716743</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>302.5014360166708</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3095.569461231905</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>2764.506573888334</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2411.73791861822</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X38" t="n">
-        <v>2038.27216035714</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y38" t="n">
-        <v>1648.132828381328</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="39">
@@ -7235,25 +7235,25 @@
         <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>417.6040489720652</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U40" t="n">
-        <v>128.5011820977088</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V40" t="n">
-        <v>66.5121164321834</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W40" t="n">
-        <v>66.5121164321834</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X40" t="n">
-        <v>66.5121164321834</v>
+        <v>120.600353476394</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1221.525483338121</v>
+        <v>1998.104470293511</v>
       </c>
       <c r="C41" t="n">
-        <v>852.5629663977095</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>494.2972677909589</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3055.56195625282</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>2724.499068909249</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2371.730413639134</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X41" t="n">
-        <v>1998.264655378055</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y41" t="n">
-        <v>1608.125323402243</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="C43" t="n">
-        <v>530.184207459804</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="D43" t="n">
-        <v>380.0675680474683</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1544744650752</v>
+        <v>296.5228085994311</v>
       </c>
       <c r="F43" t="n">
-        <v>85.26452696716481</v>
+        <v>149.6328611015207</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W43" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X43" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.1203903877109</v>
+        <v>444.4359021818242</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1418.660964416651</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C44" t="n">
-        <v>1418.660964416651</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="D44" t="n">
-        <v>1060.395265809901</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>674.6070132116567</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>263.6211084220492</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923657</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653543</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392463</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416651</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="45">
@@ -7718,19 +7718,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>899.7166415493873</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>610.6137746750309</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>355.929286469144</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218339</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218339</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>235.0842489835532</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>320.7982251355236</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>227.9704273259875</v>
+        <v>189.0500967520531</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358037</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100.0310828299331</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612668</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>288.1118133446278</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>77.79266385016535</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>43.69431484884211</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101605001</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516773</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277972</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>153.4011028494393</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>103.5325490100188</v>
+        <v>66.38305545459011</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>140.1356378603231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>58.83657468859573</v>
       </c>
     </row>
     <row r="4">
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555885</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547948</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092828</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026839</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.823262646183</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638606</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605685</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838263</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>253.391778208546</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>260.0299246530028</v>
       </c>
       <c r="G5" t="n">
-        <v>413.3887043444878</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>319.8727099068761</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>136.685125759028</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
-        <v>18.59473170946464</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3531516584621</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101212</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>214.717169359623</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>139.0798701292611</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V5" t="n">
-        <v>215.6395983452113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.1007479357377</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>68.15280819318963</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3194191323308</v>
+        <v>6.900005361107702</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312977</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867671</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.095592888813</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X6" t="n">
-        <v>93.66032507855383</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.57003565238071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,52 +22956,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632462</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544752</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.341129883412066</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.10165812996878</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>135.0636121600415</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2531730278943</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731961</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S8" t="n">
-        <v>34.88574083739144</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>106.5065310778149</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.5627819850113</v>
+        <v>221.0654014799593</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>46.09943627046536</v>
       </c>
       <c r="E9" t="n">
-        <v>30.21520245954693</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>77.59326173053483</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06944934699766</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>107.0198264898773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>61.09782853243519</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849722</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R10" t="n">
-        <v>116.3626210039064</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.572246063738</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399023</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.27134388011214</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>140.2266713038149</v>
+        <v>186.2231361403037</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.18389256268156</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681213</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>131.4867715561379</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.57770336425653</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.2082544971606</v>
+        <v>159.6364462020384</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>216.7578328961673</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753915</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637381</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.44906413483346</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>31.27917042247802</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.68201325828521</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>224.0966257588129</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>348.9508612248999</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.75870671956319</v>
       </c>
       <c r="G19" t="n">
-        <v>78.4046569549154</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>110.8631840588961</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>180.057211119835</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>32.0243997669684</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>33.6016396037939</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>121.049879215953</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24262,10 +24262,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>352.9965411366418</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>91.97593217612489</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>107.7439527351654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>174.984141204001</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24660,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>245.1936200534315</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.21681249017277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>12.64310083730658</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>123.8665252809738</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>66.40975477973157</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>171.1980047911944</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>20.79669031935697</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>222.7020862222428</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24973,16 +24973,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>94.15744254776865</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>91.87369334916289</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>168.0688818921502</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>152.5102467240816</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>72.66698746754822</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>168.8103647053324</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>60.978337998678</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>23.25917518540936</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783264</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.407644536403097</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.8395070442908</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>147.4609218293966</v>
+        <v>83.73627103638432</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25845,7 +25845,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>334.30433468256</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>215.7838235834863</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>204.9594601957315</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>362616.6230072703</v>
+        <v>409992.2446053785</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379382.0342027748</v>
+        <v>409992.2446053786</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408111.9599248167</v>
+        <v>441595.0580613399</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441595.0580613401</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613399</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.590027186</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116310.9922853508</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="C2" t="n">
-        <v>121688.5770084371</v>
+        <v>131506.9463828572</v>
       </c>
       <c r="D2" t="n">
-        <v>130903.8362022996</v>
+        <v>141643.6978687316</v>
       </c>
       <c r="E2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.830763437</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="G2" t="n">
-        <v>279684.8307634372</v>
+        <v>279684.830763437</v>
       </c>
       <c r="H2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="I2" t="n">
         <v>279684.830763437</v>
@@ -26346,13 +26346,13 @@
         <v>279684.8307634371</v>
       </c>
       <c r="M2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="N2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="O2" t="n">
-        <v>279684.8307634369</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="P2" t="n">
         <v>279684.830763437</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489056</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>23151.37050443033</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38987.52889819871</v>
+        <v>43803.80384074416</v>
       </c>
       <c r="E3" t="n">
-        <v>43838.31016216663</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>597335.6860090869</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179776</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>5005.218442393754</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353655</v>
+        <v>10295.60674904868</v>
       </c>
       <c r="M3" t="n">
-        <v>10678.49868114519</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154949.3715668551</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063672</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131212</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723341</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
-        <v>53538.12534878444</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161358</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26496,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404988.3722132517</v>
+        <v>-477765.1420374581</v>
       </c>
       <c r="C6" t="n">
-        <v>47632.46271574277</v>
+        <v>64890.29293767233</v>
       </c>
       <c r="D6" t="n">
-        <v>38272.62979721369</v>
+        <v>28522.23147926689</v>
       </c>
       <c r="E6" t="n">
-        <v>74309.38717687917</v>
+        <v>-426414.7957988001</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>200719.847834868</v>
       </c>
       <c r="G6" t="n">
-        <v>-392541.8427960491</v>
+        <v>200719.8478348682</v>
       </c>
       <c r="H6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.8478348679</v>
       </c>
       <c r="I6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
       <c r="J6" t="n">
-        <v>180548.6152212399</v>
+        <v>162298.4413287339</v>
       </c>
       <c r="K6" t="n">
-        <v>199788.6247706438</v>
+        <v>200719.847834868</v>
       </c>
       <c r="L6" t="n">
-        <v>196552.568399684</v>
+        <v>190424.2410858193</v>
       </c>
       <c r="M6" t="n">
-        <v>194115.3445318923</v>
+        <v>40263.40596699068</v>
       </c>
       <c r="N6" t="n">
-        <v>204793.8432130375</v>
+        <v>200719.8478348681</v>
       </c>
       <c r="O6" t="n">
-        <v>49844.47164618238</v>
+        <v>200719.8478348681</v>
       </c>
       <c r="P6" t="n">
-        <v>204793.8432130376</v>
+        <v>200719.847834868</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129047</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
-        <v>144.6751566710423</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>187.52558716632</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641655</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52443243433669</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.71341500264811</v>
+        <v>36.39307775568341</v>
       </c>
       <c r="E3" t="n">
-        <v>38.64077471175437</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>541.3067596803937</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="E4" t="n">
-        <v>42.85043049527772</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910186</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582168</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611841</v>
+        <v>40.67946607761112</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527772</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44771083582145</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611864</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="M4" t="n">
-        <v>42.85043049527772</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.8758682359729</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856931</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660333</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902262</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497859</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704056</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440497</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149897</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>138.4613654251943</v>
       </c>
       <c r="L3" t="n">
-        <v>153.489060191812</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111205</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724355</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264121</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335306</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118424</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700641</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284494</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166983</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391663</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8691320296071</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056598</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276155</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338899</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444106</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>341.5257237215146</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>165.3693736969364</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>222.3595307837911</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>199.9629954989595</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>243.454372208257</v>
+        <v>238.7894450985626</v>
       </c>
       <c r="O6" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7252153102001</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240804</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495489</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>260.7122886438576</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202534</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702221</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>365.708915369595</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215255</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216403</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299986</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.096613678243984</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>10.59097947146163</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357576</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796269</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>235.9393707926325</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534499</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.42012267678167</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987955</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743288</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>106.8133892467328</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>144.114496931253</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059667</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>129.947932395008</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1929053629525</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.9842040963737</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821129</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303944</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175254</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043121</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244295</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924582</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590851</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>298.916117797533</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550077</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>4.75513090282037</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620018</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114196</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784861</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647911</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181395</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938014</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554463</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>92.6649492891022</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>92.6649492891022</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434661</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998329</v>
+        <v>0.6199264508352701</v>
       </c>
       <c r="L3" t="n">
-        <v>14.93468041193783</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>92.6649492891022</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>92.6649492891022</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>91.5825882819677</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920032</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.52793472257738</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L6" t="n">
-        <v>83.8051510039169</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>57.82896157694119</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>112.1126601249237</v>
+        <v>107.4477330152293</v>
       </c>
       <c r="O6" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>3.698987336806027</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887707</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026619</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429493</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730041</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556727</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576086</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>104.5976587092992</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911962</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.799687391771755</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983647946</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.09259053886808</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788338</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197547</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504116</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405813</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656915996</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065978</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781472</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606291</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755147</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>91.301859448557</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764999</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>12.1592157464608</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061155</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520829</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400552</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
